--- a/Data/Ano20152016.xlsx
+++ b/Data/Ano20152016.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susana\Documents\ProgProjects\OwnProjects\MscThesisFernando\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Susana\Documents\ProgProjects\WorkProjects\MscThesisFernando\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D61463-4487-45E1-9C07-5631B3762A75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3830721F-8D05-47B2-A253-F550BB004933}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{69F1449B-B124-47F8-8806-CCCF222FA5D7}"/>
   </bookViews>
@@ -57,18 +57,9 @@
     <t>Videos</t>
   </si>
   <si>
-    <t>Modelo de Negócio</t>
-  </si>
-  <si>
     <t>Indicações de Interface</t>
   </si>
   <si>
-    <t>Mural da equipa</t>
-  </si>
-  <si>
-    <t>Gestão da Equipa</t>
-  </si>
-  <si>
     <t>Gestão de Projectos</t>
   </si>
   <si>
@@ -288,9 +279,6 @@
     <t>Falta de feedback</t>
   </si>
   <si>
-    <t>E quais são os 3 aspectos que menos gosta? Aspecto Visual</t>
-  </si>
-  <si>
     <t>E quais são os 3 aspectos que menos gosta? Navegação na ferramenta</t>
   </si>
   <si>
@@ -300,66 +288,86 @@
     <t>E quais são os 3 aspectos que menos gosta? Exemplos</t>
   </si>
   <si>
-    <t>E quais são os 3 aspectos que menos gosta? Videos</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Modelo de Negócio</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Indicações de Interface</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Mural da equipa</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Gestão da Equipa</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Gestão de Projectos</t>
-  </si>
-  <si>
-    <t>E quais são os 3 aspectos que menos gosta? Outro (especifique)</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Aspecto Visual</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Navegação na ferramenta</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Perguntas</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Exemplos</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Videos</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Modelo de Negócio</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Indicações de Interface</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Mural da equipa</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Gestão da Equipa</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Gestão de Projectos</t>
-  </si>
-  <si>
-    <t>Quais são os aspectos preferidos da ferramenta? Outro (especifique)</t>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Aspecto Visual</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Navegação na Ferramenta</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Perguntas</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Exemplos</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Vídeos</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Indicações de Interface</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Mural de equipa</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ?  Gestão de equipa</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Gestão de projectos</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Outros</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Aspecto visual</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Vídeos</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Indicações de interface</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Mural de equipa</t>
+  </si>
+  <si>
+    <t>Modelo de Negócios</t>
+  </si>
+  <si>
+    <t>Mural de equipa</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Gestão de equipa</t>
+  </si>
+  <si>
+    <t>Gestão de equipa</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Gestão de projectos</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Outros</t>
+  </si>
+  <si>
+    <t>Quais são os seus 3 aspectos preferidos da ferramenta ? Modelo de Negócios</t>
+  </si>
+  <si>
+    <t>E quais são os 3 aspectos que menos gosta? Modelo de Negócios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -387,8 +395,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -407,7 +416,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -705,16 +714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C4197F1-AABC-4C3E-9C8C-A1705EAAD079}">
   <dimension ref="A1:AB281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="54.90625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="71.36328125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="55.08984375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="255.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26953125" customWidth="1"/>
+    <col min="12" max="12" width="26.81640625" customWidth="1"/>
+    <col min="23" max="23" width="55.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="255.54296875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -722,71 +732,71 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" t="s">
+      <c r="S1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" t="s">
+      <c r="U1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="V1" t="s">
         <v>101</v>
       </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="W1" t="s">
         <v>103</v>
       </c>
-      <c r="J1" t="s">
+      <c r="X1" t="s">
         <v>104</v>
-      </c>
-      <c r="K1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L1" t="s">
-        <v>106</v>
-      </c>
-      <c r="N1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O1" t="s">
-        <v>86</v>
-      </c>
-      <c r="P1" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S1" t="s">
-        <v>90</v>
-      </c>
-      <c r="T1" t="s">
-        <v>91</v>
-      </c>
-      <c r="U1" t="s">
-        <v>92</v>
-      </c>
-      <c r="V1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W1" t="s">
-        <v>94</v>
-      </c>
-      <c r="X1" t="s">
-        <v>95</v>
       </c>
       <c r="Z1" t="s">
         <v>1</v>
@@ -803,10 +813,10 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O2" t="s">
         <v>4</v>
@@ -815,13 +825,13 @@
         <v>6</v>
       </c>
       <c r="V2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB2" t="s">
         <v>11</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.35">
@@ -838,25 +848,25 @@
         <v>7</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q3" t="s">
         <v>6</v>
       </c>
       <c r="T3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U3" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.35">
@@ -873,10 +883,10 @@
         <v>3</v>
       </c>
       <c r="Z4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.35">
@@ -893,7 +903,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
         <v>5</v>
@@ -902,22 +912,22 @@
         <v>6</v>
       </c>
       <c r="S5" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U5" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V5" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.35">
@@ -925,22 +935,22 @@
         <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O6" t="s">
         <v>4</v>
       </c>
       <c r="T6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="s">
         <v>13</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.35">
@@ -963,13 +973,13 @@
         <v>7</v>
       </c>
       <c r="X8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.35">
@@ -980,25 +990,25 @@
         <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q9" t="s">
         <v>6</v>
       </c>
       <c r="U9" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V9" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.35">
@@ -1015,16 +1025,16 @@
         <v>7</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P10" t="s">
         <v>5</v>
       </c>
       <c r="Z10" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB10" t="s">
         <v>13</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.35">
@@ -1041,19 +1051,19 @@
         <v>6</v>
       </c>
       <c r="T11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U11" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W11" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.35">
@@ -1067,16 +1077,16 @@
         <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
       </c>
       <c r="Z13" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.35">
@@ -1093,13 +1103,13 @@
         <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.35">
@@ -1110,19 +1120,19 @@
         <v>4</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.35">
@@ -1139,13 +1149,13 @@
         <v>7</v>
       </c>
       <c r="X18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z18" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB18" t="s">
         <v>13</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.35">
@@ -1153,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="I19" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -1165,10 +1175,10 @@
         <v>6</v>
       </c>
       <c r="Z19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.35">
@@ -1185,19 +1195,19 @@
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
       </c>
       <c r="W20" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z20" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.35">
@@ -1211,19 +1221,19 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V21" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="X21" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.35">
@@ -1246,28 +1256,28 @@
         <v>7</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J22" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB22" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.35">
@@ -1284,19 +1294,19 @@
         <v>7</v>
       </c>
       <c r="S23" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="V23" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W23" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z23" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="s">
         <v>15</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.35">
@@ -1310,16 +1320,16 @@
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X24" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z24" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB24" t="s">
         <v>13</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.35">
@@ -1327,22 +1337,22 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P25" t="s">
         <v>5</v>
       </c>
       <c r="U25" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z25" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.35">
@@ -1359,22 +1369,22 @@
         <v>7</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U26" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V26" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.35">
@@ -1388,10 +1398,10 @@
         <v>7</v>
       </c>
       <c r="Z27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.35">
@@ -1408,19 +1418,19 @@
         <v>5</v>
       </c>
       <c r="S28" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB28" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.35">
@@ -1434,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P29" t="s">
         <v>5</v>
@@ -1443,13 +1453,13 @@
         <v>6</v>
       </c>
       <c r="U29" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB29" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.35">
@@ -1463,25 +1473,25 @@
         <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P30" t="s">
         <v>5</v>
       </c>
       <c r="T30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V30" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB30" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.35">
@@ -1495,16 +1505,16 @@
         <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X31" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="Z31" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB31" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.35">
@@ -1521,19 +1531,19 @@
         <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q32" t="s">
         <v>6</v>
       </c>
       <c r="X32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Z32" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.35">
@@ -1547,13 +1557,13 @@
         <v>7</v>
       </c>
       <c r="X33" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Z33" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB33" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.35">
@@ -1570,19 +1580,19 @@
         <v>6</v>
       </c>
       <c r="T34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V34" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W34" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.35">
@@ -1596,22 +1606,22 @@
         <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="V35" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="Z35" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.35">
@@ -1625,25 +1635,25 @@
         <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J36" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>6</v>
+      </c>
+      <c r="R36" t="s">
+        <v>7</v>
+      </c>
+      <c r="T36" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z36" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB36" t="s">
         <v>11</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>6</v>
-      </c>
-      <c r="R36" t="s">
-        <v>7</v>
-      </c>
-      <c r="T36" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z36" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB36" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.35">
@@ -1657,7 +1667,7 @@
         <v>4</v>
       </c>
       <c r="K37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q37" t="s">
         <v>6</v>
@@ -1666,13 +1676,13 @@
         <v>7</v>
       </c>
       <c r="S37" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z37" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB37" t="s">
         <v>15</v>
-      </c>
-      <c r="AB37" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.35">
@@ -1686,25 +1696,25 @@
         <v>5</v>
       </c>
       <c r="J38" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K38" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N38" t="s">
         <v>3</v>
       </c>
       <c r="S38" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T38" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z38" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB38" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.35">
@@ -1724,22 +1734,22 @@
         <v>7</v>
       </c>
       <c r="K39" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S39" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T39" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z39" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB39" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.35">
@@ -1753,19 +1763,19 @@
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R40" t="s">
         <v>7</v>
       </c>
       <c r="U40" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z40" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.35">
@@ -1779,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="G41" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O41" t="s">
         <v>4</v>
@@ -1788,13 +1798,13 @@
         <v>6</v>
       </c>
       <c r="V41" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB41" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.35">
@@ -1808,25 +1818,25 @@
         <v>7</v>
       </c>
       <c r="J42" t="s">
+        <v>102</v>
+      </c>
+      <c r="K42" t="s">
+        <v>9</v>
+      </c>
+      <c r="O42" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s">
+        <v>8</v>
+      </c>
+      <c r="U42" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB42" t="s">
         <v>11</v>
-      </c>
-      <c r="K42" t="s">
-        <v>12</v>
-      </c>
-      <c r="O42" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42" t="s">
-        <v>9</v>
-      </c>
-      <c r="U42" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z42" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB42" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.35">
@@ -1834,13 +1844,13 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J43" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K43" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q43" t="s">
         <v>6</v>
@@ -1849,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="X43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Z43" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB43" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.35">
@@ -1866,19 +1876,19 @@
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O44" t="s">
         <v>4</v>
       </c>
       <c r="Z44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB44" t="s">
         <v>13</v>
-      </c>
-      <c r="AB44" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.35">
@@ -1892,25 +1902,25 @@
         <v>7</v>
       </c>
       <c r="G45" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K45" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U45" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X45" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Z45" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB45" t="s">
         <v>13</v>
-      </c>
-      <c r="AB45" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.35">
@@ -1927,19 +1937,19 @@
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K46" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R46" t="s">
         <v>7</v>
       </c>
       <c r="Z46" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.35">
@@ -1947,28 +1957,28 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="U47" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V47" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="X47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Z47" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.35">
@@ -1982,16 +1992,16 @@
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U48" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z48" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB48" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.35">
@@ -2011,28 +2021,28 @@
         <v>7</v>
       </c>
       <c r="G49" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I49" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J49" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K49" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O49" t="s">
         <v>4</v>
       </c>
       <c r="T49" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z49" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB49" t="s">
         <v>13</v>
-      </c>
-      <c r="AB49" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.35">
@@ -2049,22 +2059,22 @@
         <v>7</v>
       </c>
       <c r="G50" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U50" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W50" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z50" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB50" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:28" x14ac:dyDescent="0.35">
@@ -2072,16 +2082,16 @@
         <v>2</v>
       </c>
       <c r="L51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="X51" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Z51" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB51" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.35">
@@ -2101,16 +2111,16 @@
         <v>6</v>
       </c>
       <c r="T52" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U52" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB52" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.35">
@@ -2127,31 +2137,31 @@
         <v>7</v>
       </c>
       <c r="G53" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I53" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J53" t="s">
+        <v>102</v>
+      </c>
+      <c r="K53" t="s">
+        <v>9</v>
+      </c>
+      <c r="O53" t="s">
+        <v>4</v>
+      </c>
+      <c r="P53" t="s">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB53" t="s">
         <v>11</v>
-      </c>
-      <c r="K53" t="s">
-        <v>12</v>
-      </c>
-      <c r="O53" t="s">
-        <v>4</v>
-      </c>
-      <c r="P53" t="s">
-        <v>5</v>
-      </c>
-      <c r="T53" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z53" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB53" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="54" spans="1:28" x14ac:dyDescent="0.35">
@@ -2162,13 +2172,13 @@
         <v>5</v>
       </c>
       <c r="G54" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J54" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N54" t="s">
         <v>3</v>
@@ -2177,13 +2187,13 @@
         <v>4</v>
       </c>
       <c r="U54" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB54" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:28" x14ac:dyDescent="0.35">
@@ -2194,19 +2204,19 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q55" t="s">
         <v>6</v>
       </c>
       <c r="Z55" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:28" x14ac:dyDescent="0.35">
@@ -2217,19 +2227,19 @@
         <v>4</v>
       </c>
       <c r="G56" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H56" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q56" t="s">
         <v>6</v>
       </c>
       <c r="Z56" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB56" t="s">
         <v>15</v>
-      </c>
-      <c r="AB56" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:28" x14ac:dyDescent="0.35">
@@ -2243,22 +2253,22 @@
         <v>6</v>
       </c>
       <c r="K57" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O57" t="s">
         <v>4</v>
       </c>
       <c r="T57" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U57" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z57" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB57" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:28" x14ac:dyDescent="0.35">
@@ -2272,16 +2282,16 @@
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Z58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB58" t="s">
         <v>13</v>
-      </c>
-      <c r="AB58" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:28" x14ac:dyDescent="0.35">
@@ -2292,19 +2302,19 @@
         <v>4</v>
       </c>
       <c r="H59" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K59" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q59" t="s">
         <v>6</v>
       </c>
       <c r="Z59" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB59" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" spans="1:28" x14ac:dyDescent="0.35">
@@ -2318,16 +2328,16 @@
         <v>7</v>
       </c>
       <c r="K60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="T60" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z60" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB60" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:28" x14ac:dyDescent="0.35">
@@ -2347,19 +2357,19 @@
         <v>6</v>
       </c>
       <c r="T61" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U61" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V61" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB61" t="s">
         <v>11</v>
-      </c>
-      <c r="Z61" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="62" spans="1:28" x14ac:dyDescent="0.35">
@@ -2373,22 +2383,22 @@
         <v>4</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="R62" t="s">
         <v>7</v>
       </c>
       <c r="T62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W62" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:28" x14ac:dyDescent="0.35">
@@ -2408,13 +2418,13 @@
         <v>7</v>
       </c>
       <c r="U63" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z63" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:28" x14ac:dyDescent="0.35">
@@ -2431,22 +2441,22 @@
         <v>7</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N64" t="s">
         <v>3</v>
       </c>
       <c r="T64" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U64" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z64" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" spans="1:28" x14ac:dyDescent="0.35">
@@ -2460,25 +2470,25 @@
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K65" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N65" t="s">
         <v>3</v>
       </c>
       <c r="U65" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V65" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z65" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:28" x14ac:dyDescent="0.35">
@@ -2492,7 +2502,7 @@
         <v>4</v>
       </c>
       <c r="K67" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P67" t="s">
         <v>5</v>
@@ -2501,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="U67" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z67" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB67" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="68" spans="1:28" x14ac:dyDescent="0.35">
@@ -2521,16 +2531,16 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U68" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z68" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB68" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:28" x14ac:dyDescent="0.35">
@@ -2541,10 +2551,10 @@
         <v>6</v>
       </c>
       <c r="G69" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H69" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O69" t="s">
         <v>4</v>
@@ -2553,10 +2563,10 @@
         <v>5</v>
       </c>
       <c r="Z69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB69" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:28" x14ac:dyDescent="0.35">
@@ -2570,7 +2580,7 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P71" t="s">
         <v>5</v>
@@ -2579,13 +2589,13 @@
         <v>6</v>
       </c>
       <c r="T71" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z71" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:28" x14ac:dyDescent="0.35">
@@ -2599,25 +2609,25 @@
         <v>6</v>
       </c>
       <c r="G72" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K72" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R72" t="s">
         <v>7</v>
       </c>
       <c r="T72" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U72" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z72" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:28" x14ac:dyDescent="0.35">
@@ -2637,16 +2647,16 @@
         <v>7</v>
       </c>
       <c r="T73" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z73" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB73" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:28" x14ac:dyDescent="0.35">
@@ -2660,22 +2670,22 @@
         <v>5</v>
       </c>
       <c r="G74" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N74" t="s">
         <v>3</v>
       </c>
       <c r="T74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U74" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z74" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB74" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="75" spans="1:28" x14ac:dyDescent="0.35">
@@ -2689,22 +2699,22 @@
         <v>6</v>
       </c>
       <c r="H75" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N75" t="s">
         <v>3</v>
       </c>
       <c r="U75" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V75" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z75" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB75" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:28" x14ac:dyDescent="0.35">
@@ -2718,19 +2728,19 @@
         <v>6</v>
       </c>
       <c r="G76" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T76" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U76" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z76" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="77" spans="1:28" x14ac:dyDescent="0.35">
@@ -2744,16 +2754,16 @@
         <v>5</v>
       </c>
       <c r="T77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W77" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z77" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB77" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:28" x14ac:dyDescent="0.35">
@@ -2767,7 +2777,7 @@
         <v>7</v>
       </c>
       <c r="K78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P78" t="s">
         <v>5</v>
@@ -2776,13 +2786,13 @@
         <v>6</v>
       </c>
       <c r="S78" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z78" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB78" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:28" x14ac:dyDescent="0.35">
@@ -2793,10 +2803,10 @@
         <v>6</v>
       </c>
       <c r="G79" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O79" t="s">
         <v>4</v>
@@ -2805,13 +2815,13 @@
         <v>5</v>
       </c>
       <c r="T79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z79" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB79" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.35">
@@ -2825,28 +2835,28 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J80" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K80" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P80" t="s">
         <v>5</v>
       </c>
       <c r="T80" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U80" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z80" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB80" t="s">
         <v>13</v>
-      </c>
-      <c r="AB80" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:28" x14ac:dyDescent="0.35">
@@ -2863,10 +2873,10 @@
         <v>5</v>
       </c>
       <c r="Z82" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB82" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.35">
@@ -2886,16 +2896,16 @@
         <v>5</v>
       </c>
       <c r="S83" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z83" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB83" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.35">
@@ -2906,19 +2916,19 @@
         <v>3</v>
       </c>
       <c r="K84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O84" t="s">
         <v>4</v>
       </c>
       <c r="X84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Z84" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.35">
@@ -2932,22 +2942,22 @@
         <v>4</v>
       </c>
       <c r="H85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U85" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V85" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z85" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.35">
@@ -2958,13 +2968,13 @@
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J86" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K86" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O86" t="s">
         <v>4</v>
@@ -2973,13 +2983,13 @@
         <v>6</v>
       </c>
       <c r="T86" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB86" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.35">
@@ -2999,25 +3009,25 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H87" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J87" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K87" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q87" t="s">
         <v>6</v>
       </c>
       <c r="Z87" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB87" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.35">
@@ -3040,16 +3050,16 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U88" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z88" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB88" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.35">
@@ -3066,16 +3076,16 @@
         <v>4</v>
       </c>
       <c r="T89" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Z89" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB89" t="s">
         <v>15</v>
-      </c>
-      <c r="AB89" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.35">
@@ -3086,16 +3096,16 @@
         <v>4</v>
       </c>
       <c r="G90" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P90" t="s">
         <v>5</v>
       </c>
       <c r="Z90" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB90" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="91" spans="1:28" x14ac:dyDescent="0.35">
@@ -3109,16 +3119,16 @@
         <v>4</v>
       </c>
       <c r="T91" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W91" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z91" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.35">
@@ -3129,25 +3139,25 @@
         <v>3</v>
       </c>
       <c r="G94" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K94" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O94" t="s">
         <v>4</v>
       </c>
       <c r="T94" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X94" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Z94" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB94" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.35">
@@ -3164,10 +3174,10 @@
         <v>7</v>
       </c>
       <c r="Z95" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB95" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.35">
@@ -3184,13 +3194,13 @@
         <v>7</v>
       </c>
       <c r="X96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Z96" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB96" t="s">
         <v>15</v>
-      </c>
-      <c r="AB96" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.35">
@@ -3201,13 +3211,13 @@
         <v>3</v>
       </c>
       <c r="W97" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z97" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB97" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:28" x14ac:dyDescent="0.35">
@@ -3215,16 +3225,16 @@
         <v>3</v>
       </c>
       <c r="L98" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="X98" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="Z98" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB98" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:28" x14ac:dyDescent="0.35">
@@ -3235,25 +3245,25 @@
         <v>6</v>
       </c>
       <c r="G99" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K99" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N99" t="s">
         <v>3</v>
       </c>
       <c r="T99" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V99" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z99" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB99" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="100" spans="1:28" x14ac:dyDescent="0.35">
@@ -3270,22 +3280,22 @@
         <v>7</v>
       </c>
       <c r="K100" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q100" t="s">
         <v>6</v>
       </c>
       <c r="T100" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U100" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z100" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB100" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.35">
@@ -3302,19 +3312,19 @@
         <v>7</v>
       </c>
       <c r="G101" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P101" t="s">
         <v>5</v>
       </c>
       <c r="T101" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V101" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z101" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="102" spans="1:28" x14ac:dyDescent="0.35">
@@ -3331,22 +3341,22 @@
         <v>7</v>
       </c>
       <c r="H102" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O102" t="s">
         <v>4</v>
       </c>
       <c r="U102" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W102" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z102" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB102" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:28" x14ac:dyDescent="0.35">
@@ -3357,10 +3367,10 @@
         <v>7</v>
       </c>
       <c r="G103" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K103" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O103" t="s">
         <v>4</v>
@@ -3369,13 +3379,13 @@
         <v>5</v>
       </c>
       <c r="T103" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z103" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB103" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="104" spans="1:28" x14ac:dyDescent="0.35">
@@ -3392,13 +3402,13 @@
         <v>7</v>
       </c>
       <c r="X104" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="Z104" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB104" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.35">
@@ -3406,13 +3416,13 @@
         <v>4</v>
       </c>
       <c r="G106" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K106" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P106" t="s">
         <v>5</v>
@@ -3421,13 +3431,13 @@
         <v>6</v>
       </c>
       <c r="U106" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z106" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB106" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.35">
@@ -3438,28 +3448,28 @@
         <v>3</v>
       </c>
       <c r="H107" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J107" t="s">
+        <v>102</v>
+      </c>
+      <c r="K107" t="s">
+        <v>9</v>
+      </c>
+      <c r="N107" t="s">
+        <v>3</v>
+      </c>
+      <c r="P107" t="s">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB107" t="s">
         <v>11</v>
-      </c>
-      <c r="K107" t="s">
-        <v>12</v>
-      </c>
-      <c r="N107" t="s">
-        <v>3</v>
-      </c>
-      <c r="P107" t="s">
-        <v>5</v>
-      </c>
-      <c r="T107" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z107" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB107" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.35">
@@ -3470,25 +3480,25 @@
         <v>3</v>
       </c>
       <c r="I108" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J108" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="O108" t="s">
         <v>4</v>
       </c>
       <c r="S108" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T108" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z108" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB108" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.35">
@@ -3508,7 +3518,7 @@
         <v>3</v>
       </c>
       <c r="Z109" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.35">
@@ -3519,10 +3529,10 @@
         <v>6</v>
       </c>
       <c r="G110" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K110" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O110" t="s">
         <v>4</v>
@@ -3531,13 +3541,13 @@
         <v>5</v>
       </c>
       <c r="X110" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Z110" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB110" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.35">
@@ -3548,19 +3558,19 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J111" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K111" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R111" t="s">
         <v>7</v>
       </c>
       <c r="Z111" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.35">
@@ -3571,13 +3581,13 @@
         <v>3</v>
       </c>
       <c r="W112" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z112" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB112" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.35">
@@ -3594,22 +3604,22 @@
         <v>6</v>
       </c>
       <c r="G113" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q113" t="s">
         <v>6</v>
       </c>
       <c r="V113" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W113" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z113" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB113" t="s">
         <v>13</v>
-      </c>
-      <c r="AB113" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.35">
@@ -3623,7 +3633,7 @@
         <v>6</v>
       </c>
       <c r="K114" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P114" t="s">
         <v>5</v>
@@ -3632,10 +3642,10 @@
         <v>7</v>
       </c>
       <c r="Z114" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB114" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.35">
@@ -3646,13 +3656,13 @@
         <v>3</v>
       </c>
       <c r="S115" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z115" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB115" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.35">
@@ -3660,22 +3670,22 @@
         <v>3</v>
       </c>
       <c r="G116" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K116" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q116" t="s">
         <v>6</v>
       </c>
       <c r="T116" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U116" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z116" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.35">
@@ -3686,13 +3696,13 @@
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H117" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K117" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N117" t="s">
         <v>3</v>
@@ -3704,10 +3714,10 @@
         <v>7</v>
       </c>
       <c r="Z117" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB117" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.35">
@@ -3721,16 +3731,16 @@
         <v>5</v>
       </c>
       <c r="G118" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="R118" t="s">
         <v>7</v>
       </c>
       <c r="Z118" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB118" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.35">
@@ -3744,13 +3754,13 @@
         <v>7</v>
       </c>
       <c r="G119" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H119" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K119" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N119" t="s">
         <v>3</v>
@@ -3759,13 +3769,13 @@
         <v>4</v>
       </c>
       <c r="V119" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z119" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB119" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.35">
@@ -3776,25 +3786,25 @@
         <v>4</v>
       </c>
       <c r="G120" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K120" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N120" t="s">
         <v>3</v>
       </c>
       <c r="U120" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X120" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Z120" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB120" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.35">
@@ -3811,28 +3821,28 @@
         <v>6</v>
       </c>
       <c r="G121" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J121" t="s">
+        <v>102</v>
+      </c>
+      <c r="K121" t="s">
+        <v>9</v>
+      </c>
+      <c r="P121" t="s">
+        <v>5</v>
+      </c>
+      <c r="T121" t="s">
+        <v>8</v>
+      </c>
+      <c r="U121" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z121" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB121" t="s">
         <v>11</v>
-      </c>
-      <c r="K121" t="s">
-        <v>12</v>
-      </c>
-      <c r="P121" t="s">
-        <v>5</v>
-      </c>
-      <c r="T121" t="s">
-        <v>9</v>
-      </c>
-      <c r="U121" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z121" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB121" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.35">
@@ -3849,16 +3859,16 @@
         <v>5</v>
       </c>
       <c r="T122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U122" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z122" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB122" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.35">
@@ -3869,25 +3879,25 @@
         <v>7</v>
       </c>
       <c r="G123" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K123" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N123" t="s">
         <v>3</v>
       </c>
       <c r="U123" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Z123" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB123" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.35">
@@ -3904,19 +3914,19 @@
         <v>7</v>
       </c>
       <c r="G124" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O124" t="s">
         <v>4</v>
       </c>
       <c r="W124" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z124" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB124" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.35">
@@ -3930,7 +3940,7 @@
         <v>5</v>
       </c>
       <c r="G126" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q126" t="s">
         <v>6</v>
@@ -3939,13 +3949,13 @@
         <v>7</v>
       </c>
       <c r="S126" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z126" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB126" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.35">
@@ -3959,25 +3969,25 @@
         <v>7</v>
       </c>
       <c r="G128" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I128" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J128" t="s">
+        <v>102</v>
+      </c>
+      <c r="K128" t="s">
+        <v>9</v>
+      </c>
+      <c r="X128" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB128" t="s">
         <v>11</v>
-      </c>
-      <c r="K128" t="s">
-        <v>12</v>
-      </c>
-      <c r="X128" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z128" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB128" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.35">
@@ -3988,13 +3998,13 @@
         <v>6</v>
       </c>
       <c r="U129" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z129" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB129" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.35">
@@ -4008,7 +4018,7 @@
         <v>7</v>
       </c>
       <c r="G130" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N130" t="s">
         <v>3</v>
@@ -4017,13 +4027,13 @@
         <v>4</v>
       </c>
       <c r="T130" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z130" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB130" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.35">
@@ -4037,22 +4047,22 @@
         <v>7</v>
       </c>
       <c r="G131" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T131" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U131" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W131" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z131" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB131" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.35">
@@ -4060,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O132" t="s">
         <v>4</v>
@@ -4069,13 +4079,13 @@
         <v>5</v>
       </c>
       <c r="T132" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z132" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB132" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.35">
@@ -4086,22 +4096,22 @@
         <v>3</v>
       </c>
       <c r="G133" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P133" t="s">
         <v>5</v>
       </c>
       <c r="U133" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V133" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z133" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB133" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.35">
@@ -4112,7 +4122,7 @@
         <v>6</v>
       </c>
       <c r="K134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N134" t="s">
         <v>3</v>
@@ -4121,13 +4131,13 @@
         <v>4</v>
       </c>
       <c r="W134" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z134" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB134" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.35">
@@ -4141,19 +4151,19 @@
         <v>7</v>
       </c>
       <c r="G135" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N135" t="s">
         <v>3</v>
       </c>
       <c r="T135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z135" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB135" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.35">
@@ -4167,16 +4177,16 @@
         <v>7</v>
       </c>
       <c r="G136" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X136" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Z136" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB136" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.35">
@@ -4193,19 +4203,19 @@
         <v>7</v>
       </c>
       <c r="S137" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U137" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V137" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z137" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB137" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.35">
@@ -4216,7 +4226,7 @@
         <v>4</v>
       </c>
       <c r="G140" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N140" t="s">
         <v>3</v>
@@ -4228,7 +4238,7 @@
         <v>7</v>
       </c>
       <c r="Z140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.35">
@@ -4236,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N141" t="s">
         <v>3</v>
@@ -4245,13 +4255,13 @@
         <v>4</v>
       </c>
       <c r="W141" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z141" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB141" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.35">
@@ -4268,25 +4278,25 @@
         <v>6</v>
       </c>
       <c r="H142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K142" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N142" t="s">
         <v>3</v>
       </c>
       <c r="U142" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V142" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z142" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB142" t="s">
         <v>13</v>
-      </c>
-      <c r="AB142" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.35">
@@ -4300,13 +4310,13 @@
         <v>5</v>
       </c>
       <c r="X144" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="Z144" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB144" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.35">
@@ -4323,19 +4333,19 @@
         <v>7</v>
       </c>
       <c r="S145" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V145" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z145" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB145" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.35">
@@ -4346,13 +4356,13 @@
         <v>3</v>
       </c>
       <c r="T147" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z147" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB147" t="s">
         <v>15</v>
-      </c>
-      <c r="AB147" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.35">
@@ -4366,7 +4376,7 @@
         <v>6</v>
       </c>
       <c r="I148" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P148" t="s">
         <v>5</v>
@@ -4375,13 +4385,13 @@
         <v>7</v>
       </c>
       <c r="T148" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z148" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB148" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.35">
@@ -4389,7 +4399,7 @@
         <v>4</v>
       </c>
       <c r="G149" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q149" t="s">
         <v>6</v>
@@ -4398,13 +4408,13 @@
         <v>7</v>
       </c>
       <c r="T149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z149" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB149" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.35">
@@ -4424,22 +4434,22 @@
         <v>7</v>
       </c>
       <c r="G150" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T150" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V150" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W150" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z150" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB150" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.35">
@@ -4459,16 +4469,16 @@
         <v>3</v>
       </c>
       <c r="V151" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W151" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z151" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB151" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.35">
@@ -4485,19 +4495,19 @@
         <v>7</v>
       </c>
       <c r="S152" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U152" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W152" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z152" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB152" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.35">
@@ -4511,16 +4521,16 @@
         <v>6</v>
       </c>
       <c r="K154" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N154" t="s">
         <v>3</v>
       </c>
       <c r="Z154" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB154" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.35">
@@ -4531,22 +4541,22 @@
         <v>3</v>
       </c>
       <c r="J155" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="O155" t="s">
         <v>4</v>
       </c>
       <c r="T155" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z155" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB155" t="s">
         <v>15</v>
-      </c>
-      <c r="AB155" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.35">
@@ -4557,13 +4567,13 @@
         <v>7</v>
       </c>
       <c r="X156" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="Z156" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB156" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.35">
@@ -4574,7 +4584,7 @@
         <v>4</v>
       </c>
       <c r="G157" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P157" t="s">
         <v>5</v>
@@ -4583,13 +4593,13 @@
         <v>7</v>
       </c>
       <c r="T157" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z157" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB157" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.35">
@@ -4600,10 +4610,10 @@
         <v>7</v>
       </c>
       <c r="G158" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K158" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N158" t="s">
         <v>3</v>
@@ -4612,13 +4622,13 @@
         <v>4</v>
       </c>
       <c r="U158" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z158" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB158" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.35">
@@ -4632,22 +4642,22 @@
         <v>7</v>
       </c>
       <c r="G159" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O159" t="s">
         <v>4</v>
       </c>
       <c r="T159" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V159" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z159" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB159" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="161" spans="1:28" x14ac:dyDescent="0.35">
@@ -4664,13 +4674,13 @@
         <v>7</v>
       </c>
       <c r="T161" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z161" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB161" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:28" x14ac:dyDescent="0.35">
@@ -4687,16 +4697,16 @@
         <v>7</v>
       </c>
       <c r="S162" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="W162" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z162" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB162" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="163" spans="1:28" x14ac:dyDescent="0.35">
@@ -4710,7 +4720,7 @@
         <v>5</v>
       </c>
       <c r="H163" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q163" t="s">
         <v>6</v>
@@ -4719,10 +4729,10 @@
         <v>7</v>
       </c>
       <c r="Z163" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB163" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="164" spans="1:28" x14ac:dyDescent="0.35">
@@ -4742,28 +4752,28 @@
         <v>7</v>
       </c>
       <c r="G164" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H164" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I164" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J164" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N164" t="s">
         <v>3</v>
       </c>
       <c r="Z164" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB164" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="165" spans="1:28" x14ac:dyDescent="0.35">
@@ -4780,13 +4790,13 @@
         <v>6</v>
       </c>
       <c r="X165" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="Z165" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB165" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="166" spans="1:28" x14ac:dyDescent="0.35">
@@ -4803,25 +4813,25 @@
         <v>7</v>
       </c>
       <c r="G166" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="L166" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U166" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V166" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z166" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB166" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="167" spans="1:28" x14ac:dyDescent="0.35">
@@ -4829,22 +4839,22 @@
         <v>3</v>
       </c>
       <c r="K167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O167" t="s">
         <v>4</v>
       </c>
       <c r="S167" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z167" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB167" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="168" spans="1:28" x14ac:dyDescent="0.35">
@@ -4858,22 +4868,22 @@
         <v>4</v>
       </c>
       <c r="G168" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T168" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X168" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="Z168" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB168" t="s">
         <v>15</v>
-      </c>
-      <c r="AB168" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="169" spans="1:28" x14ac:dyDescent="0.35">
@@ -4887,16 +4897,16 @@
         <v>5</v>
       </c>
       <c r="G169" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X169" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z169" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB169" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="170" spans="1:28" x14ac:dyDescent="0.35">
@@ -4904,16 +4914,16 @@
         <v>3</v>
       </c>
       <c r="K170" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O170" t="s">
         <v>4</v>
       </c>
       <c r="Z170" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB170" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:28" x14ac:dyDescent="0.35">
@@ -4924,16 +4934,16 @@
         <v>6</v>
       </c>
       <c r="G171" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P171" t="s">
         <v>5</v>
       </c>
       <c r="Z171" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB171" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="173" spans="1:28" x14ac:dyDescent="0.35">
@@ -4941,16 +4951,16 @@
         <v>3</v>
       </c>
       <c r="G173" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="W173" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z173" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB173" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="174" spans="1:28" x14ac:dyDescent="0.35">
@@ -4964,7 +4974,7 @@
         <v>4</v>
       </c>
       <c r="H174" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q174" t="s">
         <v>6</v>
@@ -4973,13 +4983,13 @@
         <v>7</v>
       </c>
       <c r="U174" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z174" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB174" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="175" spans="1:28" x14ac:dyDescent="0.35">
@@ -4987,22 +4997,22 @@
         <v>2</v>
       </c>
       <c r="G175" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P175" t="s">
         <v>5</v>
       </c>
       <c r="T175" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X175" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Z175" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB175" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="176" spans="1:28" x14ac:dyDescent="0.35">
@@ -5019,10 +5029,10 @@
         <v>5</v>
       </c>
       <c r="Z176" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB176" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="177" spans="1:28" x14ac:dyDescent="0.35">
@@ -5039,19 +5049,19 @@
         <v>6</v>
       </c>
       <c r="G177" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H177" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X177" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Z177" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB177" t="s">
         <v>13</v>
-      </c>
-      <c r="AB177" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:28" x14ac:dyDescent="0.35">
@@ -5065,16 +5075,16 @@
         <v>7</v>
       </c>
       <c r="U178" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V178" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z178" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB178" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="179" spans="1:28" x14ac:dyDescent="0.35">
@@ -5082,7 +5092,7 @@
         <v>4</v>
       </c>
       <c r="G179" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P179" t="s">
         <v>5</v>
@@ -5091,13 +5101,13 @@
         <v>7</v>
       </c>
       <c r="T179" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z179" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB179" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="180" spans="1:28" x14ac:dyDescent="0.35">
@@ -5117,25 +5127,25 @@
         <v>7</v>
       </c>
       <c r="G180" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H180" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U180" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V180" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z180" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB180" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:28" x14ac:dyDescent="0.35">
@@ -5149,16 +5159,16 @@
         <v>6</v>
       </c>
       <c r="V181" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W181" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z181" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB181" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="182" spans="1:28" x14ac:dyDescent="0.35">
@@ -5178,25 +5188,25 @@
         <v>7</v>
       </c>
       <c r="H182" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I182" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J182" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K182" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X182" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Z182" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB182" t="s">
         <v>13</v>
-      </c>
-      <c r="AB182" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="183" spans="1:28" x14ac:dyDescent="0.35">
@@ -5213,13 +5223,13 @@
         <v>7</v>
       </c>
       <c r="T183" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z183" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB183" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="184" spans="1:28" x14ac:dyDescent="0.35">
@@ -5233,16 +5243,16 @@
         <v>6</v>
       </c>
       <c r="G184" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="X184" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="Z184" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB184" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="185" spans="1:28" x14ac:dyDescent="0.35">
@@ -5256,7 +5266,7 @@
         <v>4</v>
       </c>
       <c r="G185" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q185" t="s">
         <v>6</v>
@@ -5265,13 +5275,13 @@
         <v>7</v>
       </c>
       <c r="V185" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z185" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB185" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="187" spans="1:28" x14ac:dyDescent="0.35">
@@ -5288,19 +5298,19 @@
         <v>7</v>
       </c>
       <c r="U187" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V187" t="s">
+        <v>102</v>
+      </c>
+      <c r="W187" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z187" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB187" t="s">
         <v>11</v>
-      </c>
-      <c r="W187" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z187" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB187" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="188" spans="1:28" x14ac:dyDescent="0.35">
@@ -5308,13 +5318,13 @@
         <v>4</v>
       </c>
       <c r="G188" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O188" t="s">
         <v>4</v>
@@ -5323,10 +5333,10 @@
         <v>6</v>
       </c>
       <c r="Z188" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB188" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="189" spans="1:28" x14ac:dyDescent="0.35">
@@ -5340,19 +5350,19 @@
         <v>4</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q189" t="s">
         <v>6</v>
       </c>
       <c r="Z189" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB189" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="190" spans="1:28" x14ac:dyDescent="0.35">
@@ -5366,25 +5376,25 @@
         <v>4</v>
       </c>
       <c r="G190" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H190" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I190" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K190" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R190" t="s">
         <v>7</v>
       </c>
       <c r="Z190" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB190" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="191" spans="1:28" x14ac:dyDescent="0.35">
@@ -5398,16 +5408,16 @@
         <v>4</v>
       </c>
       <c r="T191" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W191" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z191" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB191" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="192" spans="1:28" x14ac:dyDescent="0.35">
@@ -5430,28 +5440,28 @@
         <v>7</v>
       </c>
       <c r="G192" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H192" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I192" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="J192" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K192" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X192" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="Z192" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB192" t="s">
         <v>13</v>
-      </c>
-      <c r="AB192" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="193" spans="1:28" x14ac:dyDescent="0.35">
@@ -5468,13 +5478,13 @@
         <v>7</v>
       </c>
       <c r="T193" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z193" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB193" t="s">
         <v>15</v>
-      </c>
-      <c r="AB193" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="194" spans="1:28" x14ac:dyDescent="0.35">
@@ -5485,22 +5495,22 @@
         <v>3</v>
       </c>
       <c r="I194" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="S194" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U194" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W194" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z194" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB194" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="195" spans="1:28" x14ac:dyDescent="0.35">
@@ -5520,16 +5530,16 @@
         <v>5</v>
       </c>
       <c r="T195" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W195" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z195" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB195" t="s">
         <v>15</v>
-      </c>
-      <c r="AB195" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="196" spans="1:28" x14ac:dyDescent="0.35">
@@ -5540,25 +5550,25 @@
         <v>6</v>
       </c>
       <c r="G196" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H196" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K196" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O196" t="s">
         <v>4</v>
       </c>
       <c r="V196" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z196" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB196" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="197" spans="1:28" x14ac:dyDescent="0.35">
@@ -5575,25 +5585,25 @@
         <v>7</v>
       </c>
       <c r="G197" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K197" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N197" t="s">
         <v>3</v>
       </c>
       <c r="T197" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V197" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z197" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB197" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="198" spans="1:28" x14ac:dyDescent="0.35">
@@ -5607,16 +5617,16 @@
         <v>5</v>
       </c>
       <c r="T198" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V198" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z198" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB198" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="199" spans="1:28" x14ac:dyDescent="0.35">
@@ -5633,16 +5643,16 @@
         <v>6</v>
       </c>
       <c r="S199" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T199" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z199" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB199" t="s">
         <v>15</v>
-      </c>
-      <c r="AB199" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="200" spans="1:28" x14ac:dyDescent="0.35">
@@ -5662,22 +5672,22 @@
         <v>7</v>
       </c>
       <c r="G200" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T200" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U200" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V200" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z200" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB200" t="s">
         <v>13</v>
-      </c>
-      <c r="AB200" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="201" spans="1:28" x14ac:dyDescent="0.35">
@@ -5691,7 +5701,7 @@
         <v>6</v>
       </c>
       <c r="G201" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P201" t="s">
         <v>5</v>
@@ -5700,10 +5710,10 @@
         <v>7</v>
       </c>
       <c r="Z201" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB201" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="202" spans="1:28" x14ac:dyDescent="0.35">
@@ -5720,22 +5730,22 @@
         <v>7</v>
       </c>
       <c r="G202" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J202" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K202" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q202" t="s">
         <v>6</v>
       </c>
       <c r="Z202" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB202" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="203" spans="1:28" x14ac:dyDescent="0.35">
@@ -5752,25 +5762,25 @@
         <v>7</v>
       </c>
       <c r="G203" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K203" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q203" t="s">
         <v>6</v>
       </c>
       <c r="T203" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U203" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z203" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB203" t="s">
         <v>13</v>
-      </c>
-      <c r="AB203" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="204" spans="1:28" x14ac:dyDescent="0.35">
@@ -5778,22 +5788,22 @@
         <v>4</v>
       </c>
       <c r="K204" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O204" t="s">
         <v>4</v>
       </c>
       <c r="T204" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V204" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z204" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB204" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="205" spans="1:28" x14ac:dyDescent="0.35">
@@ -5810,19 +5820,19 @@
         <v>7</v>
       </c>
       <c r="S205" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="W205" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X205" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="Z205" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB205" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="206" spans="1:28" x14ac:dyDescent="0.35">
@@ -5839,13 +5849,13 @@
         <v>6</v>
       </c>
       <c r="T206" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z206" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB206" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="207" spans="1:28" x14ac:dyDescent="0.35">
@@ -5856,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="G207" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I207" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="P207" t="s">
         <v>5</v>
@@ -5868,13 +5878,13 @@
         <v>6</v>
       </c>
       <c r="T207" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z207" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB207" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:28" x14ac:dyDescent="0.35">
@@ -5894,28 +5904,28 @@
         <v>7</v>
       </c>
       <c r="H208" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K208" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O208" t="s">
         <v>4</v>
       </c>
       <c r="S208" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U208" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V208" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z208" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB208" t="s">
         <v>11</v>
-      </c>
-      <c r="Z208" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB208" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="209" spans="1:28" x14ac:dyDescent="0.35">
@@ -5938,13 +5948,13 @@
         <v>7</v>
       </c>
       <c r="V209" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z209" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB209" t="s">
         <v>11</v>
-      </c>
-      <c r="Z209" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB209" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="211" spans="1:28" x14ac:dyDescent="0.35">
@@ -5958,19 +5968,19 @@
         <v>7</v>
       </c>
       <c r="G211" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P211" t="s">
         <v>5</v>
       </c>
       <c r="T211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U211" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z211" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:28" x14ac:dyDescent="0.35">
@@ -5987,19 +5997,19 @@
         <v>7</v>
       </c>
       <c r="G213" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H213" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O213" t="s">
         <v>4</v>
       </c>
       <c r="Z213" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB213" t="s">
         <v>13</v>
-      </c>
-      <c r="AB213" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="214" spans="1:28" x14ac:dyDescent="0.35">
@@ -6013,22 +6023,22 @@
         <v>5</v>
       </c>
       <c r="G214" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K214" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V214" t="s">
+        <v>102</v>
+      </c>
+      <c r="X214" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z214" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB214" t="s">
         <v>11</v>
-      </c>
-      <c r="X214" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z214" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB214" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="215" spans="1:28" x14ac:dyDescent="0.35">
@@ -6042,22 +6052,22 @@
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="U215" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="W215" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X215" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Z215" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB215" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="216" spans="1:28" x14ac:dyDescent="0.35">
@@ -6068,28 +6078,28 @@
         <v>4</v>
       </c>
       <c r="G216" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H216" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K216" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N216" t="s">
         <v>3</v>
       </c>
       <c r="U216" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V216" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z216" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB216" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="217" spans="1:28" x14ac:dyDescent="0.35">
@@ -6106,13 +6116,13 @@
         <v>6</v>
       </c>
       <c r="G217" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J217" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K217" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P217" t="s">
         <v>5</v>
@@ -6121,13 +6131,13 @@
         <v>6</v>
       </c>
       <c r="U217" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z217" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB217" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="218" spans="1:28" x14ac:dyDescent="0.35">
@@ -6135,7 +6145,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Q218" t="s">
         <v>6</v>
@@ -6144,22 +6154,22 @@
         <v>7</v>
       </c>
       <c r="T218" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U218" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V218" t="s">
+        <v>102</v>
+      </c>
+      <c r="W218" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z218" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB218" t="s">
         <v>11</v>
-      </c>
-      <c r="W218" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z218" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB218" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="219" spans="1:28" x14ac:dyDescent="0.35">
@@ -6173,22 +6183,22 @@
         <v>6</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O219" t="s">
         <v>4</v>
       </c>
       <c r="T219" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X219" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Z219" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB219" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="220" spans="1:28" x14ac:dyDescent="0.35">
@@ -6202,22 +6212,22 @@
         <v>4</v>
       </c>
       <c r="G220" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P220" t="s">
         <v>5</v>
       </c>
       <c r="T220" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U220" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z220" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB220" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221" spans="1:28" x14ac:dyDescent="0.35">
@@ -6231,25 +6241,25 @@
         <v>4</v>
       </c>
       <c r="H221" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I221" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q221" t="s">
         <v>6</v>
       </c>
       <c r="V221" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W221" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z221" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB221" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:28" x14ac:dyDescent="0.35">
@@ -6269,16 +6279,16 @@
         <v>7</v>
       </c>
       <c r="S222" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T222" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z222" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB222" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="224" spans="1:28" x14ac:dyDescent="0.35">
@@ -6292,16 +6302,16 @@
         <v>6</v>
       </c>
       <c r="T224" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X224" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="Z224" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB224" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="225" spans="1:28" x14ac:dyDescent="0.35">
@@ -6315,10 +6325,10 @@
         <v>7</v>
       </c>
       <c r="G225" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="L225" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="N225" t="s">
         <v>3</v>
@@ -6330,19 +6340,19 @@
         <v>5</v>
       </c>
       <c r="V225" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W225" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X225" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Z225" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB225" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="226" spans="1:28" x14ac:dyDescent="0.35">
@@ -6359,13 +6369,13 @@
         <v>7</v>
       </c>
       <c r="X226" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="Z226" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB226" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="227" spans="1:28" x14ac:dyDescent="0.35">
@@ -6376,13 +6386,13 @@
         <v>7</v>
       </c>
       <c r="T227" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z227" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB227" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="229" spans="1:28" x14ac:dyDescent="0.35">
@@ -6396,22 +6406,22 @@
         <v>4</v>
       </c>
       <c r="G229" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P229" t="s">
         <v>5</v>
       </c>
       <c r="U229" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V229" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z229" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB229" t="s">
         <v>11</v>
-      </c>
-      <c r="Z229" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB229" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="230" spans="1:28" x14ac:dyDescent="0.35">
@@ -6422,25 +6432,25 @@
         <v>3</v>
       </c>
       <c r="G230" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K230" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L230" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="X230" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Z230" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB230" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="231" spans="1:28" x14ac:dyDescent="0.35">
@@ -6457,10 +6467,10 @@
         <v>5</v>
       </c>
       <c r="Z231" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB231" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="232" spans="1:28" x14ac:dyDescent="0.35">
@@ -6468,7 +6478,7 @@
         <v>1</v>
       </c>
       <c r="L232" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N232" t="s">
         <v>3</v>
@@ -6480,10 +6490,10 @@
         <v>6</v>
       </c>
       <c r="Z232" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB232" t="s">
         <v>15</v>
-      </c>
-      <c r="AB232" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="233" spans="1:28" x14ac:dyDescent="0.35">
@@ -6494,7 +6504,7 @@
         <v>5</v>
       </c>
       <c r="G233" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P233" t="s">
         <v>5</v>
@@ -6503,13 +6513,13 @@
         <v>6</v>
       </c>
       <c r="W233" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z233" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB233" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:28" x14ac:dyDescent="0.35">
@@ -6517,16 +6527,16 @@
         <v>2</v>
       </c>
       <c r="L234" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="X234" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="Z234" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB234" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="236" spans="1:28" x14ac:dyDescent="0.35">
@@ -6540,22 +6550,22 @@
         <v>6</v>
       </c>
       <c r="K236" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O236" t="s">
         <v>4</v>
       </c>
       <c r="T236" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U236" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z236" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB236" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="237" spans="1:28" x14ac:dyDescent="0.35">
@@ -6569,19 +6579,19 @@
         <v>6</v>
       </c>
       <c r="G237" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H237" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z237" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB237" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="238" spans="1:28" x14ac:dyDescent="0.35">
@@ -6604,16 +6614,16 @@
         <v>7</v>
       </c>
       <c r="S238" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T238" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z238" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB238" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="239" spans="1:28" x14ac:dyDescent="0.35">
@@ -6627,7 +6637,7 @@
         <v>4</v>
       </c>
       <c r="K239" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q239" t="s">
         <v>6</v>
@@ -6636,13 +6646,13 @@
         <v>7</v>
       </c>
       <c r="V239" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z239" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB239" t="s">
         <v>11</v>
-      </c>
-      <c r="Z239" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB239" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="240" spans="1:28" x14ac:dyDescent="0.35">
@@ -6650,16 +6660,16 @@
         <v>4</v>
       </c>
       <c r="G240" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H240" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J240" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K240" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N240" t="s">
         <v>3</v>
@@ -6671,10 +6681,10 @@
         <v>6</v>
       </c>
       <c r="Z240" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB240" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="242" spans="1:28" x14ac:dyDescent="0.35">
@@ -6688,13 +6698,13 @@
         <v>5</v>
       </c>
       <c r="V242" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W242" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z242" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:28" x14ac:dyDescent="0.35">
@@ -6708,25 +6718,25 @@
         <v>4</v>
       </c>
       <c r="G244" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K244" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R244" t="s">
         <v>7</v>
       </c>
       <c r="U244" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V244" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z244" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB244" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="245" spans="1:28" x14ac:dyDescent="0.35">
@@ -6743,13 +6753,13 @@
         <v>7</v>
       </c>
       <c r="U245" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z245" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB245" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="246" spans="1:28" x14ac:dyDescent="0.35">
@@ -6763,16 +6773,16 @@
         <v>6</v>
       </c>
       <c r="G246" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P246" t="s">
         <v>5</v>
       </c>
       <c r="Z246" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB246" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="247" spans="1:28" x14ac:dyDescent="0.35">
@@ -6783,25 +6793,25 @@
         <v>4</v>
       </c>
       <c r="G247" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K247" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Q247" t="s">
         <v>6</v>
       </c>
       <c r="U247" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X247" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="Z247" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB247" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="248" spans="1:28" x14ac:dyDescent="0.35">
@@ -6818,16 +6828,16 @@
         <v>5</v>
       </c>
       <c r="T248" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="W248" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z248" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB248" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="249" spans="1:28" x14ac:dyDescent="0.35">
@@ -6841,22 +6851,22 @@
         <v>4</v>
       </c>
       <c r="K249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P249" t="s">
         <v>5</v>
       </c>
       <c r="T249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V249" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z249" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB249" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="250" spans="1:28" x14ac:dyDescent="0.35">
@@ -6870,13 +6880,13 @@
         <v>5</v>
       </c>
       <c r="U250" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z250" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB250" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="251" spans="1:28" x14ac:dyDescent="0.35">
@@ -6890,19 +6900,19 @@
         <v>7</v>
       </c>
       <c r="T251" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U251" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X251" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z251" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB251" t="s">
         <v>13</v>
-      </c>
-      <c r="AB251" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="252" spans="1:28" x14ac:dyDescent="0.35">
@@ -6910,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="L252" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N252" t="s">
         <v>3</v>
@@ -6919,13 +6929,13 @@
         <v>6</v>
       </c>
       <c r="W252" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z252" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB252" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="253" spans="1:28" x14ac:dyDescent="0.35">
@@ -6936,10 +6946,10 @@
         <v>6</v>
       </c>
       <c r="G253" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I253" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Q253" t="s">
         <v>6</v>
@@ -6948,13 +6958,13 @@
         <v>7</v>
       </c>
       <c r="W253" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z253" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB253" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="255" spans="1:28" x14ac:dyDescent="0.35">
@@ -6965,16 +6975,16 @@
         <v>5</v>
       </c>
       <c r="G255" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O255" t="s">
         <v>4</v>
       </c>
       <c r="Z255" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB255" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="256" spans="1:28" x14ac:dyDescent="0.35">
@@ -6985,10 +6995,10 @@
         <v>4</v>
       </c>
       <c r="W256" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z256" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="257" spans="1:28" x14ac:dyDescent="0.35">
@@ -7005,16 +7015,16 @@
         <v>7</v>
       </c>
       <c r="G257" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H257" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I257" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N257" t="s">
         <v>3</v>
@@ -7023,13 +7033,13 @@
         <v>6</v>
       </c>
       <c r="X257" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Z257" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AB257" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="258" spans="1:28" x14ac:dyDescent="0.35">
@@ -7040,10 +7050,10 @@
         <v>7</v>
       </c>
       <c r="J258" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K258" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P258" t="s">
         <v>5</v>
@@ -7052,13 +7062,13 @@
         <v>6</v>
       </c>
       <c r="S258" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z258" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB258" t="s">
         <v>13</v>
-      </c>
-      <c r="AB258" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="259" spans="1:28" x14ac:dyDescent="0.35">
@@ -7075,13 +7085,13 @@
         <v>4</v>
       </c>
       <c r="T259" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z259" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB259" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="260" spans="1:28" x14ac:dyDescent="0.35">
@@ -7092,7 +7102,7 @@
         <v>7</v>
       </c>
       <c r="H260" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O260" t="s">
         <v>4</v>
@@ -7101,13 +7111,13 @@
         <v>5</v>
       </c>
       <c r="X260" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Z260" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB260" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="261" spans="1:28" x14ac:dyDescent="0.35">
@@ -7121,28 +7131,28 @@
         <v>7</v>
       </c>
       <c r="G261" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H261" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J261" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K261" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O261" t="s">
         <v>4</v>
       </c>
       <c r="X261" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="Z261" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB261" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="262" spans="1:28" x14ac:dyDescent="0.35">
@@ -7150,16 +7160,16 @@
         <v>2</v>
       </c>
       <c r="L262" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="X262" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Z262" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB262" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="263" spans="1:28" x14ac:dyDescent="0.35">
@@ -7170,22 +7180,22 @@
         <v>6</v>
       </c>
       <c r="K263" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S263" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T263" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U263" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z263" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB263" t="s">
         <v>15</v>
-      </c>
-      <c r="AB263" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="264" spans="1:28" x14ac:dyDescent="0.35">
@@ -7205,25 +7215,25 @@
         <v>7</v>
       </c>
       <c r="G264" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H264" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J264" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="K264" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X264" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Z264" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB264" t="s">
         <v>13</v>
-      </c>
-      <c r="AB264" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="265" spans="1:28" x14ac:dyDescent="0.35">
@@ -7246,19 +7256,19 @@
         <v>7</v>
       </c>
       <c r="G265" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K265" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="R265" t="s">
         <v>7</v>
       </c>
       <c r="Z265" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB265" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="266" spans="1:28" x14ac:dyDescent="0.35">
@@ -7272,22 +7282,22 @@
         <v>7</v>
       </c>
       <c r="G266" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="O266" t="s">
         <v>4</v>
       </c>
       <c r="T266" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U266" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z266" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB266" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="267" spans="1:28" x14ac:dyDescent="0.35">
@@ -7304,13 +7314,13 @@
         <v>7</v>
       </c>
       <c r="S267" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="Z267" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB267" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="268" spans="1:28" x14ac:dyDescent="0.35">
@@ -7321,10 +7331,10 @@
         <v>6</v>
       </c>
       <c r="G268" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="K268" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="N268" t="s">
         <v>3</v>
@@ -7336,10 +7346,10 @@
         <v>6</v>
       </c>
       <c r="Z268" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB268" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="269" spans="1:28" x14ac:dyDescent="0.35">
@@ -7359,10 +7369,10 @@
         <v>7</v>
       </c>
       <c r="Z269" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB269" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="270" spans="1:28" x14ac:dyDescent="0.35">
@@ -7370,13 +7380,13 @@
         <v>3</v>
       </c>
       <c r="G270" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="H270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K270" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O270" t="s">
         <v>4</v>
@@ -7385,13 +7395,13 @@
         <v>7</v>
       </c>
       <c r="T270" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z270" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB270" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="271" spans="1:28" x14ac:dyDescent="0.35">
@@ -7411,16 +7421,16 @@
         <v>5</v>
       </c>
       <c r="S271" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="W271" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="Z271" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB271" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="272" spans="1:28" x14ac:dyDescent="0.35">
@@ -7434,22 +7444,22 @@
         <v>6</v>
       </c>
       <c r="G272" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N272" t="s">
         <v>3</v>
       </c>
       <c r="T272" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U272" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z272" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB272" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="273" spans="1:28" x14ac:dyDescent="0.35">
@@ -7463,22 +7473,22 @@
         <v>6</v>
       </c>
       <c r="G273" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="T273" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U273" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="V273" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="Z273" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB273" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="274" spans="1:28" x14ac:dyDescent="0.35">
@@ -7489,7 +7499,7 @@
         <v>5</v>
       </c>
       <c r="G274" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="N274" t="s">
         <v>3</v>
@@ -7498,10 +7508,10 @@
         <v>4</v>
       </c>
       <c r="Z274" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB274" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="275" spans="1:28" x14ac:dyDescent="0.35">
@@ -7515,7 +7525,7 @@
         <v>7</v>
       </c>
       <c r="G275" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="P275" t="s">
         <v>5</v>
@@ -7524,13 +7534,13 @@
         <v>6</v>
       </c>
       <c r="U275" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="Z275" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AB275" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="278" spans="1:28" x14ac:dyDescent="0.35">
@@ -7544,19 +7554,19 @@
         <v>7</v>
       </c>
       <c r="V278" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="W278" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="X278" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Z278" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AB278" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="280" spans="1:28" x14ac:dyDescent="0.35">
@@ -7570,16 +7580,16 @@
         <v>7</v>
       </c>
       <c r="U280" t="s">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="X280" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="Z280" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB280" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="281" spans="1:28" x14ac:dyDescent="0.35">
@@ -7590,10 +7600,10 @@
         <v>3</v>
       </c>
       <c r="G281" t="s">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="J281" t="s">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="O281" t="s">
         <v>4</v>
@@ -7602,16 +7612,16 @@
         <v>6</v>
       </c>
       <c r="T281" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X281" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="Z281" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB281" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
